--- a/src/test/resources/TataData.xlsx
+++ b/src/test/resources/TataData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AARRSOL\IdeaProjects\LearningSeleninumATB6x\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEEEA08-8362-4013-9A79-7A0122F0F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292A2F0-A40A-43D2-86B7-CDF31531E632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="1656" windowWidth="15312" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6432" yWindow="6000" windowWidth="15312" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +400,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -426,10 +425,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
